--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4066565.866622824</v>
+        <v>4062307.604396349</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>184.0086821473706</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>224.0373330494655</v>
+        <v>12.92889148616887</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.958190538687</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0.7530123241024569</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011784</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.7043385723319</v>
       </c>
       <c r="U2" t="n">
         <v>251.1557452255192</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>2.128310457548227</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063312</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.4595917937733</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3958800207158</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>163.8266508667273</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>159.9794275264997</v>
       </c>
       <c r="D5" t="n">
-        <v>165.0547668270792</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>12.92889148616887</v>
+        <v>412.9288914861689</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.1636514716172</v>
       </c>
       <c r="I5" t="n">
         <v>118.958190538687</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.7530123241024569</v>
       </c>
       <c r="S5" t="n">
         <v>154.9260532011784</v>
       </c>
       <c r="T5" t="n">
-        <v>212.7043385723319</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1557452255192</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>92.41681674980069</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,22 +1062,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>27.87661023582947</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.75990484659</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.07600977063312</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.4595917937733</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,7 +1150,7 @@
         <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>197.0096245339388</v>
       </c>
       <c r="Y8" t="n">
-        <v>337.8262164610538</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,10 +1293,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>113.671402397854</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>71.69547847114424</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>104.8913819999787</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634813</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824217</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>190.821537608521</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>84.8780074336923</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2092,10 +2092,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,13 +2298,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>192.9183958257888</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>100.9025715636457</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>68.17501931583776</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>41.74133133758715</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.2867049641468</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>12.74007641194022</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3246,13 +3246,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>145.6718493954792</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>40.96105405076426</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>55.30088041042189</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
-        <v>146.939375611337</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>139.188673966789</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>764.3894117869559</v>
+        <v>1389.859049985334</v>
       </c>
       <c r="C2" t="n">
-        <v>764.3894117869559</v>
+        <v>1020.896533044923</v>
       </c>
       <c r="D2" t="n">
-        <v>406.1237131802054</v>
+        <v>662.6308344381721</v>
       </c>
       <c r="E2" t="n">
-        <v>406.1237131802054</v>
+        <v>476.7634787337573</v>
       </c>
       <c r="F2" t="n">
-        <v>399.1782124310019</v>
+        <v>65.77757394414974</v>
       </c>
       <c r="G2" t="n">
-        <v>172.8778760174004</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="H2" t="n">
-        <v>172.8778760174004</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I2" t="n">
         <v>52.71808759448422</v>
       </c>
       <c r="J2" t="n">
-        <v>72.94508437002398</v>
+        <v>240.350733390377</v>
       </c>
       <c r="K2" t="n">
-        <v>153.9986274745297</v>
+        <v>321.4042764948827</v>
       </c>
       <c r="L2" t="n">
-        <v>482.9965724363807</v>
+        <v>693.1884131896865</v>
       </c>
       <c r="M2" t="n">
-        <v>1112.630525317657</v>
+        <v>1322.822366070962</v>
       </c>
       <c r="N2" t="n">
-        <v>1737.82061627277</v>
+        <v>1948.012457026075</v>
       </c>
       <c r="O2" t="n">
-        <v>2282.982253027265</v>
+        <v>2493.17409378057</v>
       </c>
       <c r="P2" t="n">
-        <v>2392.009993239693</v>
+        <v>2602.201833992999</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.904379724211</v>
@@ -4357,25 +4357,25 @@
         <v>2635.143761215016</v>
       </c>
       <c r="S2" t="n">
-        <v>2478.652798385543</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.652798385543</v>
+        <v>2420.290893970237</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.960126440574</v>
+        <v>2166.598222025268</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.897239097003</v>
+        <v>2166.598222025268</v>
       </c>
       <c r="W2" t="n">
-        <v>1541.128583826889</v>
+        <v>2166.598222025268</v>
       </c>
       <c r="X2" t="n">
-        <v>1541.128583826889</v>
+        <v>2166.598222025268</v>
       </c>
       <c r="Y2" t="n">
-        <v>1150.989251851078</v>
+        <v>1776.458890049456</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.4318812120978</v>
+        <v>966.4318812120973</v>
       </c>
       <c r="C3" t="n">
-        <v>791.9788519309708</v>
+        <v>791.9788519309703</v>
       </c>
       <c r="D3" t="n">
-        <v>643.0444422697196</v>
+        <v>643.0444422697192</v>
       </c>
       <c r="E3" t="n">
-        <v>483.8069872642641</v>
+        <v>483.8069872642636</v>
       </c>
       <c r="F3" t="n">
-        <v>337.2724292911492</v>
+        <v>337.2724292911487</v>
       </c>
       <c r="G3" t="n">
-        <v>199.8245529640339</v>
+        <v>199.8245529640335</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815764</v>
+        <v>98.84600463815741</v>
       </c>
       <c r="I3" t="n">
         <v>52.71808759448422</v>
@@ -4415,19 +4415,19 @@
         <v>119.3005601895475</v>
       </c>
       <c r="L3" t="n">
-        <v>622.2833943866577</v>
+        <v>255.1514525362331</v>
       </c>
       <c r="M3" t="n">
-        <v>990.9111639625185</v>
+        <v>894.0879175169504</v>
       </c>
       <c r="N3" t="n">
-        <v>1643.297497944261</v>
+        <v>1435.32098308577</v>
       </c>
       <c r="O3" t="n">
-        <v>2191.222737149934</v>
+        <v>1983.246222291443</v>
       </c>
       <c r="P3" t="n">
-        <v>2613.977979877467</v>
+        <v>2406.001465018976</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.904379724211</v>
@@ -4439,7 +4439,7 @@
         <v>2464.803105373095</v>
       </c>
       <c r="T3" t="n">
-        <v>2267.787695880796</v>
+        <v>2267.787695880795</v>
       </c>
       <c r="U3" t="n">
         <v>2039.648482162597</v>
@@ -4448,13 +4448,13 @@
         <v>1804.496373930854</v>
       </c>
       <c r="W3" t="n">
-        <v>1550.259017202653</v>
+        <v>1550.259017202652</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.40751699712</v>
+        <v>1342.407516997119</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.647218232166</v>
+        <v>1134.647218232165</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221.0933227347322</v>
+        <v>54.86789613746222</v>
       </c>
       <c r="C4" t="n">
-        <v>221.0933227347322</v>
+        <v>54.86789613746222</v>
       </c>
       <c r="D4" t="n">
-        <v>70.97668332239647</v>
+        <v>54.86789613746222</v>
       </c>
       <c r="E4" t="n">
-        <v>70.97668332239647</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="F4" t="n">
-        <v>70.97668332239647</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="G4" t="n">
-        <v>70.97668332239647</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="H4" t="n">
-        <v>70.97668332239647</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I4" t="n">
-        <v>70.97668332239647</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J4" t="n">
         <v>52.71808759448422</v>
@@ -4515,25 +4515,25 @@
         <v>1047.751684421857</v>
       </c>
       <c r="S4" t="n">
-        <v>840.2167432160254</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="T4" t="n">
-        <v>614.5643391546963</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="U4" t="n">
-        <v>614.5643391546963</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="V4" t="n">
-        <v>449.0828736327495</v>
+        <v>793.0671962159703</v>
       </c>
       <c r="W4" t="n">
-        <v>449.0828736327495</v>
+        <v>503.6500261790097</v>
       </c>
       <c r="X4" t="n">
-        <v>221.0933227347322</v>
+        <v>275.6604752809923</v>
       </c>
       <c r="Y4" t="n">
-        <v>221.0933227347322</v>
+        <v>54.86789613746222</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1114.355619348945</v>
+        <v>2224.960126440574</v>
       </c>
       <c r="C5" t="n">
-        <v>745.393102408533</v>
+        <v>2063.364745100675</v>
       </c>
       <c r="D5" t="n">
-        <v>578.6711157145136</v>
+        <v>1705.099046493925</v>
       </c>
       <c r="E5" t="n">
-        <v>192.8828631162694</v>
+        <v>1319.310793895681</v>
       </c>
       <c r="F5" t="n">
-        <v>185.9373623670659</v>
+        <v>908.3248891060732</v>
       </c>
       <c r="G5" t="n">
-        <v>172.8778760174004</v>
+        <v>491.2249987160036</v>
       </c>
       <c r="H5" t="n">
         <v>172.8778760174004</v>
@@ -4570,19 +4570,19 @@
         <v>72.94508437002398</v>
       </c>
       <c r="K5" t="n">
-        <v>474.9025859199828</v>
+        <v>153.9986274745297</v>
       </c>
       <c r="L5" t="n">
-        <v>612.3584352436161</v>
+        <v>693.1884131896865</v>
       </c>
       <c r="M5" t="n">
-        <v>1241.992388124892</v>
+        <v>1322.822366070962</v>
       </c>
       <c r="N5" t="n">
-        <v>1867.182479080005</v>
+        <v>1948.012457026075</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.593372690802</v>
+        <v>2493.17409378057</v>
       </c>
       <c r="P5" t="n">
         <v>2602.201833992999</v>
@@ -4591,28 +4591,28 @@
         <v>2635.904379724211</v>
       </c>
       <c r="R5" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="S5" t="n">
-        <v>2479.413416894738</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="T5" t="n">
-        <v>2264.560549649958</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="U5" t="n">
-        <v>2264.560549649958</v>
+        <v>2224.960126440574</v>
       </c>
       <c r="V5" t="n">
-        <v>2264.560549649958</v>
+        <v>2224.960126440574</v>
       </c>
       <c r="W5" t="n">
-        <v>2264.560549649958</v>
+        <v>2224.960126440574</v>
       </c>
       <c r="X5" t="n">
-        <v>1891.094791388878</v>
+        <v>2224.960126440574</v>
       </c>
       <c r="Y5" t="n">
-        <v>1500.955459413066</v>
+        <v>2224.960126440574</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120978</v>
+        <v>966.4318812120983</v>
       </c>
       <c r="C6" t="n">
-        <v>791.9788519309708</v>
+        <v>791.9788519309714</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697196</v>
+        <v>643.0444422697201</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642641</v>
+        <v>483.8069872642646</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911492</v>
+        <v>337.2724292911496</v>
       </c>
       <c r="G6" t="n">
         <v>199.824552964034</v>
@@ -4646,25 +4646,25 @@
         <v>52.71808759448422</v>
       </c>
       <c r="J6" t="n">
-        <v>170.7774263352076</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K6" t="n">
-        <v>237.3598989302709</v>
+        <v>304.3729239851255</v>
       </c>
       <c r="L6" t="n">
-        <v>459.2763250768484</v>
+        <v>807.3557581822357</v>
       </c>
       <c r="M6" t="n">
-        <v>1098.212790057566</v>
+        <v>1446.292223162953</v>
       </c>
       <c r="N6" t="n">
-        <v>1750.599124039308</v>
+        <v>1643.297497944261</v>
       </c>
       <c r="O6" t="n">
-        <v>2298.524363244981</v>
+        <v>2191.222737149934</v>
       </c>
       <c r="P6" t="n">
-        <v>2406.001465018976</v>
+        <v>2613.977979877467</v>
       </c>
       <c r="Q6" t="n">
         <v>2635.904379724211</v>
@@ -4682,7 +4682,7 @@
         <v>2039.648482162597</v>
       </c>
       <c r="V6" t="n">
-        <v>1804.496373930854</v>
+        <v>1804.496373930855</v>
       </c>
       <c r="W6" t="n">
         <v>1550.259017202653</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>526.0738441232016</v>
+        <v>565.0776453179529</v>
       </c>
       <c r="C7" t="n">
-        <v>357.1376611952948</v>
+        <v>396.1414623900461</v>
       </c>
       <c r="D7" t="n">
-        <v>207.021021782959</v>
+        <v>246.0248229777103</v>
       </c>
       <c r="E7" t="n">
-        <v>207.021021782959</v>
+        <v>217.8666308203068</v>
       </c>
       <c r="F7" t="n">
-        <v>207.021021782959</v>
+        <v>70.97668332239647</v>
       </c>
       <c r="G7" t="n">
-        <v>207.021021782959</v>
+        <v>70.97668332239647</v>
       </c>
       <c r="H7" t="n">
-        <v>52.71808759448422</v>
+        <v>70.97668332239647</v>
       </c>
       <c r="I7" t="n">
-        <v>52.71808759448422</v>
+        <v>70.97668332239647</v>
       </c>
       <c r="J7" t="n">
         <v>52.71808759448422</v>
@@ -4752,25 +4752,25 @@
         <v>1047.751684421857</v>
       </c>
       <c r="S7" t="n">
-        <v>840.2167432160254</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="T7" t="n">
-        <v>840.2167432160254</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="U7" t="n">
-        <v>840.2167432160254</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="V7" t="n">
-        <v>840.2167432160254</v>
+        <v>793.0671962159703</v>
       </c>
       <c r="W7" t="n">
-        <v>840.2167432160254</v>
+        <v>793.0671962159703</v>
       </c>
       <c r="X7" t="n">
-        <v>840.2167432160254</v>
+        <v>565.0776453179529</v>
       </c>
       <c r="Y7" t="n">
-        <v>619.4241640724953</v>
+        <v>565.0776453179529</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>827.4617356055121</v>
+        <v>1503.950549439753</v>
       </c>
       <c r="C8" t="n">
-        <v>458.4992186651004</v>
+        <v>1134.988032499341</v>
       </c>
       <c r="D8" t="n">
-        <v>458.4992186651004</v>
+        <v>776.7223338925909</v>
       </c>
       <c r="E8" t="n">
-        <v>72.71096606685617</v>
+        <v>390.9340812943466</v>
       </c>
       <c r="F8" t="n">
-        <v>65.7654653176527</v>
+        <v>383.9885805451432</v>
       </c>
       <c r="G8" t="n">
-        <v>52.71808759448422</v>
+        <v>370.9412028219747</v>
       </c>
       <c r="H8" t="n">
         <v>52.71808759448422</v>
@@ -4807,22 +4807,22 @@
         <v>241.3579866082206</v>
       </c>
       <c r="K8" t="n">
-        <v>644.825099628266</v>
+        <v>323.9211411828129</v>
       </c>
       <c r="L8" t="n">
-        <v>784.1537554695192</v>
+        <v>463.2497970240661</v>
       </c>
       <c r="M8" t="n">
-        <v>1415.871566452831</v>
+        <v>1094.967608007378</v>
       </c>
       <c r="N8" t="n">
-        <v>1624.444008596244</v>
+        <v>1722.275276067224</v>
       </c>
       <c r="O8" t="n">
-        <v>2171.605213363321</v>
+        <v>1961.413372610015</v>
       </c>
       <c r="P8" t="n">
-        <v>2600.920259702616</v>
+        <v>2390.72841894931</v>
       </c>
       <c r="Q8" t="n">
         <v>2635.904379724211</v>
@@ -4837,19 +4837,19 @@
         <v>2479.689342221039</v>
       </c>
       <c r="U8" t="n">
-        <v>2225.99763896619</v>
+        <v>2479.689342221039</v>
       </c>
       <c r="V8" t="n">
-        <v>1894.934751622619</v>
+        <v>2479.689342221039</v>
       </c>
       <c r="W8" t="n">
-        <v>1542.166096352505</v>
+        <v>2479.689342221039</v>
       </c>
       <c r="X8" t="n">
-        <v>1168.700338091425</v>
+        <v>2280.689721479686</v>
       </c>
       <c r="Y8" t="n">
-        <v>827.4617356055121</v>
+        <v>1890.550389503875</v>
       </c>
     </row>
     <row r="9">
@@ -4886,19 +4886,19 @@
         <v>52.71808759448422</v>
       </c>
       <c r="K9" t="n">
-        <v>120.3259072578413</v>
+        <v>382.1464919002941</v>
       </c>
       <c r="L9" t="n">
-        <v>624.6874471239598</v>
+        <v>886.5080317664126</v>
       </c>
       <c r="M9" t="n">
-        <v>804.1847834785647</v>
+        <v>1232.289170088821</v>
       </c>
       <c r="N9" t="n">
-        <v>1456.571117460307</v>
+        <v>1430.945911741486</v>
       </c>
       <c r="O9" t="n">
-        <v>2006.00712621303</v>
+        <v>1980.381920494209</v>
       </c>
       <c r="P9" t="n">
         <v>2404.349688975046</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>543.9001407943243</v>
+        <v>167.5376859761549</v>
       </c>
       <c r="C10" t="n">
-        <v>374.9639578664174</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="D10" t="n">
-        <v>224.8473184540817</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="E10" t="n">
-        <v>224.8473184540817</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="F10" t="n">
-        <v>224.8473184540817</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="G10" t="n">
-        <v>224.8473184540817</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="H10" t="n">
-        <v>70.59267535384683</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I10" t="n">
-        <v>70.59267535384683</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J10" t="n">
         <v>52.71808759448422</v>
@@ -5001,13 +5001,13 @@
         <v>797.9682808479421</v>
       </c>
       <c r="W10" t="n">
-        <v>725.5486056245641</v>
+        <v>797.9682808479421</v>
       </c>
       <c r="X10" t="n">
-        <v>725.5486056245641</v>
+        <v>569.9787299499247</v>
       </c>
       <c r="Y10" t="n">
-        <v>725.5486056245641</v>
+        <v>349.1861508063946</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,55 +5035,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5269,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,37 +5290,37 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>724.7519863413023</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>906.400451171542</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,16 +5512,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5606,16 +5606,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>870.3164745246296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>701.3802915967227</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>551.263652184387</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>403.3505586019938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5752,19 +5752,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5834,22 +5834,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3045.530642171613</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>2876.594459243706</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>2876.594459243706</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>3737.388856182343</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>3447.971686145383</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>3447.971686145383</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>3227.179107001853</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>734.6461798836013</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>734.6461798836013</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.2946447138411</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6214,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,13 +6247,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>2233.355914590558</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2233.355914590558</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>2233.355914590558</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>2830.73440221711</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>3458.332365771717</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>4010.242096011004</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4433.865245506072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4667.126905880954</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>950.7540666811333</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>781.8178837532264</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408906</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.7540666811333</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6472,43 +6472,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913445</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2381.235169913445</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>2876.560776129204</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3473.939263755756</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>4101.537227310362</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4653.44695754965</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4653.44695754965</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>415.5933575433587</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>415.5933575433587</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>415.5933575433587</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>248.3972582582387</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>106.6854271004367</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6666,7 +6666,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>680.448174698413</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6894,16 +6894,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1541.24257163705</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1251.82540160009</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,10 +6934,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7016,28 +7016,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1552.432392194325</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7131,16 +7131,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>378.6527890600109</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>231.7628415621006</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>2876.560776129205</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3473.939263755757</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>3905.661761784424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
         <v>402.7245934908939</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2298.539471851637</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2298.539471851637</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>2009.464245195835</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1754.779756989948</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1465.362586952987</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1237.37303605497</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1016.58045691144</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1977.461080510508</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1688.043910473548</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1460.05435957553</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1239.261780432</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>193.476864281028</v>
+        <v>236.6952397688591</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -7999,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8063,13 +8063,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>192.665977482468</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>459.9808678792267</v>
+        <v>347.7048391793049</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,10 +8218,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>405.7918549409329</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8230,10 +8230,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>140.6479154610307</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.839178026546833</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>186.9417816116949</v>
       </c>
       <c r="L6" t="n">
-        <v>86.93488262615341</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>459.9808678792267</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8464,16 +8464,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>14.38204974891974</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>69.66572851094102</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8534,22 +8534,22 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>167.9634363311152</v>
       </c>
       <c r="N9" t="n">
-        <v>458.3127195243206</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>292.5787224593104</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>41.54258064659051</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>72.11969353038566</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>27.76311574357379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>60.54304058923894</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>59.21924749803915</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>47.71290145456666</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>72.11969353038613</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.29794838794794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>68.52575990662531</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>106.4657939283488</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>245.5619442858267</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>110.223257881847</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
-        <v>34.08691039030762</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>40.6433062151483</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>610849.4454526156</v>
+        <v>610849.4454526155</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>610849.4454526156</v>
+        <v>610849.4454526155</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642836</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="D2" t="n">
         <v>821041.7698642835</v>
@@ -26325,31 +26325,31 @@
         <v>807146.599690006</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.599690006</v>
       </c>
       <c r="G2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="H2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="I2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="J2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="K2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="L2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="M2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="N2" t="n">
         <v>807146.5996900061</v>
-      </c>
-      <c r="I2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="J2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="K2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="L2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="M2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="N2" t="n">
-        <v>807146.599690006</v>
       </c>
       <c r="O2" t="n">
         <v>807146.5996900062</v>
@@ -26374,7 +26374,7 @@
         <v>2553.74144847562</v>
       </c>
       <c r="E3" t="n">
-        <v>775624.2722329923</v>
+        <v>775624.2722329925</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172417.1413821404</v>
+        <v>172417.1413821403</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128024.1174663867</v>
+        <v>128024.1174663868</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>183932.5854660025</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695021</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695051</v>
@@ -26438,28 +26438,28 @@
         <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695113</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26524,46 +26524,46 @@
         <v>-239806.6239242369</v>
       </c>
       <c r="C6" t="n">
-        <v>550039.3091980031</v>
+        <v>550039.309198003</v>
       </c>
       <c r="D6" t="n">
         <v>547924.3173906276</v>
       </c>
       <c r="E6" t="n">
-        <v>-75887.68289858851</v>
+        <v>-76235.06215294557</v>
       </c>
       <c r="F6" t="n">
-        <v>699736.5893344042</v>
+        <v>699389.2100800469</v>
       </c>
       <c r="G6" t="n">
-        <v>699736.589334404</v>
+        <v>699389.2100800473</v>
       </c>
       <c r="H6" t="n">
-        <v>699736.589334404</v>
+        <v>699389.2100800471</v>
       </c>
       <c r="I6" t="n">
-        <v>699736.589334404</v>
+        <v>699389.2100800473</v>
       </c>
       <c r="J6" t="n">
-        <v>527319.4479522638</v>
+        <v>526972.0686979067</v>
       </c>
       <c r="K6" t="n">
-        <v>699736.589334404</v>
+        <v>699389.2100800473</v>
       </c>
       <c r="L6" t="n">
-        <v>699736.589334404</v>
+        <v>699389.2100800471</v>
       </c>
       <c r="M6" t="n">
-        <v>571712.4718680172</v>
+        <v>571365.0926136604</v>
       </c>
       <c r="N6" t="n">
-        <v>699736.5893344039</v>
+        <v>699389.210080047</v>
       </c>
       <c r="O6" t="n">
-        <v>699736.5893344041</v>
+        <v>699389.2100800471</v>
       </c>
       <c r="P6" t="n">
-        <v>699736.589334404</v>
+        <v>699389.210080047</v>
       </c>
     </row>
   </sheetData>
@@ -26798,10 +26798,10 @@
         <v>658.9760949310527</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.916333841085361e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.7321931685957</v>
+        <v>513.7321931685959</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.9760949310523</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685957</v>
+        <v>513.732193168596</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.916333841085361e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685957</v>
+        <v>513.7321931685959</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>197.9216879248912</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>188.8915584367034</v>
       </c>
       <c r="H2" t="n">
         <v>315.1636514716172</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.958190538687</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.9260532011784</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7043385723319</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27542,10 +27542,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>144.3056521890209</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,7 +27560,7 @@
         <v>123.4282648842212</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>18.07600977063312</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>129.4149600371268</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.4595917937733</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3958800207158</v>
       </c>
       <c r="U4" t="n">
         <v>286.2609479597986</v>
       </c>
       <c r="V4" t="n">
-        <v>88.31099245710067</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>205.2934642445078</v>
       </c>
       <c r="D5" t="n">
-        <v>189.6282747936038</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>315.1636514716172</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241024569</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.7043385723319</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1557452255192</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>87.41516343213661</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,22 +27782,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>118.5573524107397</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.9261537524327</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.75990484659</v>
       </c>
       <c r="I7" t="n">
         <v>123.4282648842212</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063312</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>129.4149600371268</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.4595917937733</v>
       </c>
       <c r="T7" t="n">
         <v>223.3958800207158</v>
@@ -27833,16 +27833,16 @@
         <v>286.2609479597986</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27909,19 +27909,19 @@
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>172.7214761445302</v>
       </c>
       <c r="Y8" t="n">
-        <v>48.41172219499981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>53.57541870077387</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28028,13 +28028,13 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28073,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>214.8275198654468</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -31837,28 +31837,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>338.1920576279218</v>
       </c>
       <c r="N12" t="n">
-        <v>718.5832682008314</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>467.1465236515247</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32326,19 +32326,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32554,10 +32554,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>248.3870916262918</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33025,13 +33025,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>169.6252075171352</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>140.7358547888803</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33441,7 +33441,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33499,13 +33499,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>150.7833302198383</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33736,7 +33736,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33745,22 +33745,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>688.4205792103725</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,31 +33970,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34222,16 +34222,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>567.425043425422</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34447,28 +34447,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>428.6149474293401</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.43130987428259</v>
+        <v>189.5279250463564</v>
       </c>
       <c r="K2" t="n">
         <v>81.87226576212697</v>
       </c>
       <c r="L2" t="n">
-        <v>332.3211565271222</v>
+        <v>375.5395320149533</v>
       </c>
       <c r="M2" t="n">
         <v>635.9938917992686</v>
@@ -34719,7 +34719,7 @@
         <v>110.1290305176042</v>
       </c>
       <c r="Q2" t="n">
-        <v>246.3579661459774</v>
+        <v>34.04297548607272</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34783,13 +34783,13 @@
         <v>67.25502282329629</v>
       </c>
       <c r="L3" t="n">
-        <v>508.0634688859699</v>
+        <v>137.2231235825107</v>
       </c>
       <c r="M3" t="n">
-        <v>372.3512823998593</v>
+        <v>645.3903686673912</v>
       </c>
       <c r="N3" t="n">
-        <v>658.9760949310527</v>
+        <v>546.7000662311309</v>
       </c>
       <c r="O3" t="n">
         <v>553.459837581488</v>
@@ -34798,7 +34798,7 @@
         <v>427.025497704579</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.14787863307455</v>
+        <v>232.2251663689237</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,10 +34938,10 @@
         <v>20.43130987428259</v>
       </c>
       <c r="K5" t="n">
-        <v>406.0176783332917</v>
+        <v>81.87226576212697</v>
       </c>
       <c r="L5" t="n">
-        <v>138.8442922460942</v>
+        <v>544.6361471870271</v>
       </c>
       <c r="M5" t="n">
         <v>635.9938917992686</v>
@@ -34950,10 +34950,10 @@
         <v>631.5051423789023</v>
       </c>
       <c r="O5" t="n">
-        <v>310.5160541523205</v>
+        <v>550.6683199540352</v>
       </c>
       <c r="P5" t="n">
-        <v>431.9277386890869</v>
+        <v>110.1290305176042</v>
       </c>
       <c r="Q5" t="n">
         <v>34.04297548607272</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.251857313862</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>67.25502282329629</v>
+        <v>254.1968044349912</v>
       </c>
       <c r="L6" t="n">
-        <v>224.1580062086641</v>
+        <v>508.0634688859699</v>
       </c>
       <c r="M6" t="n">
         <v>645.3903686673912</v>
       </c>
       <c r="N6" t="n">
-        <v>658.9760949310527</v>
+        <v>198.995227051826</v>
       </c>
       <c r="O6" t="n">
         <v>553.459837581488</v>
       </c>
       <c r="P6" t="n">
-        <v>108.5627290646419</v>
+        <v>427.025497704579</v>
       </c>
       <c r="Q6" t="n">
-        <v>232.2251663689237</v>
+        <v>22.14787863307455</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
         <v>140.7360160012659</v>
@@ -35184,16 +35184,16 @@
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>210.6792344882959</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>241.5536328715062</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>349.2738770933423</v>
       </c>
       <c r="N9" t="n">
-        <v>658.9760949310527</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>402.3662250121375</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059035</v>
       </c>
       <c r="N12" t="n">
-        <v>587.2415561174981</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>328.5921438716505</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35974,19 +35974,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36202,10 +36202,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>108.4053175402703</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36673,13 +36673,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>23.94570355317127</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.7540807028587982</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37147,13 +37147,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>23.94570355317166</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37393,22 +37393,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>545.824334765928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37870,16 +37870,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>436.0833313420887</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>290.0605676494659</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4062307.604396349</v>
+        <v>4064068.134699136</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7232493.145112609</v>
+        <v>7232493.145112608</v>
       </c>
     </row>
     <row r="11">
@@ -667,13 +667,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>184.0086821473706</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>12.92889148616887</v>
+        <v>196.9375736335395</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7530123241024569</v>
+        <v>0.7530123241016327</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7043385723319</v>
+        <v>212.7043385723318</v>
       </c>
       <c r="U2" t="n">
         <v>251.1557452255192</v>
@@ -755,10 +755,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H3" t="n">
-        <v>99.96876284261762</v>
+        <v>99.96876284261756</v>
       </c>
       <c r="I3" t="n">
-        <v>45.66663787323668</v>
+        <v>45.66663787323643</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.29900499199427</v>
+        <v>21.29900499199383</v>
       </c>
       <c r="S3" t="n">
-        <v>148.0912566156104</v>
+        <v>148.0912566156103</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0452553973763</v>
+        <v>195.0452553973762</v>
       </c>
       <c r="U3" t="n">
         <v>225.8578215810165</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.128310457548227</v>
+        <v>67.95305896305823</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.75990484659</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>159.9794275264997</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9288914861689</v>
+        <v>314.9888747776391</v>
       </c>
       <c r="H5" t="n">
-        <v>315.1636514716172</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.958190538687</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241024569</v>
+        <v>0.7530123241016327</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9260532011784</v>
+        <v>154.9260532011781</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>251.1557452255192</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H6" t="n">
-        <v>99.96876284261762</v>
+        <v>99.96876284261756</v>
       </c>
       <c r="I6" t="n">
-        <v>45.66663787323668</v>
+        <v>45.66663787323643</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.29900499199427</v>
+        <v>21.29900499199383</v>
       </c>
       <c r="S6" t="n">
-        <v>148.0912566156104</v>
+        <v>148.0912566156103</v>
       </c>
       <c r="T6" t="n">
-        <v>195.0452553973763</v>
+        <v>195.0452553973762</v>
       </c>
       <c r="U6" t="n">
         <v>225.8578215810165</v>
@@ -1062,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>27.87661023582947</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.75990484659</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.428264884221</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063312</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>101.1777863419527</v>
       </c>
     </row>
     <row r="8">
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>148.2073548434033</v>
       </c>
       <c r="X8" t="n">
-        <v>197.0096245339388</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>113.671402397854</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>184.6902077947043</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695456</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634813</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>95.12712756824217</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H25" t="n">
-        <v>68.17501931583776</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2608,10 +2608,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>41.74133133758715</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444146</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>51.36569740310382</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4315,43 +4315,43 @@
         <v>662.6308344381721</v>
       </c>
       <c r="E2" t="n">
-        <v>476.7634787337573</v>
+        <v>662.6308344381721</v>
       </c>
       <c r="F2" t="n">
-        <v>65.77757394414974</v>
+        <v>251.6449296485645</v>
       </c>
       <c r="G2" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H2" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I2" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J2" t="n">
-        <v>240.350733390377</v>
+        <v>72.94508437002509</v>
       </c>
       <c r="K2" t="n">
-        <v>321.4042764948827</v>
+        <v>153.9986274745325</v>
       </c>
       <c r="L2" t="n">
-        <v>693.1884131896865</v>
+        <v>704.9390792031138</v>
       </c>
       <c r="M2" t="n">
-        <v>1322.822366070962</v>
+        <v>1004.241644981186</v>
       </c>
       <c r="N2" t="n">
-        <v>1948.012457026075</v>
+        <v>1629.431735936301</v>
       </c>
       <c r="O2" t="n">
-        <v>2493.17409378057</v>
+        <v>2174.593372690798</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.201833992999</v>
+        <v>2602.201833992996</v>
       </c>
       <c r="Q2" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R2" t="n">
         <v>2635.143761215016</v>
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.4318812120973</v>
+        <v>966.4318812120969</v>
       </c>
       <c r="C3" t="n">
-        <v>791.9788519309703</v>
+        <v>791.9788519309699</v>
       </c>
       <c r="D3" t="n">
-        <v>643.0444422697192</v>
+        <v>643.0444422697187</v>
       </c>
       <c r="E3" t="n">
-        <v>483.8069872642636</v>
+        <v>483.8069872642632</v>
       </c>
       <c r="F3" t="n">
-        <v>337.2724292911487</v>
+        <v>337.2724292911483</v>
       </c>
       <c r="G3" t="n">
-        <v>199.8245529640335</v>
+        <v>199.824552964033</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815741</v>
+        <v>98.84600463815696</v>
       </c>
       <c r="I3" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J3" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K3" t="n">
-        <v>119.3005601895475</v>
+        <v>119.3005601895487</v>
       </c>
       <c r="L3" t="n">
-        <v>255.1514525362331</v>
+        <v>622.2833943866603</v>
       </c>
       <c r="M3" t="n">
-        <v>894.0879175169504</v>
+        <v>1261.219859367379</v>
       </c>
       <c r="N3" t="n">
-        <v>1435.32098308577</v>
+        <v>1913.606193349121</v>
       </c>
       <c r="O3" t="n">
-        <v>1983.246222291443</v>
+        <v>2461.531432554796</v>
       </c>
       <c r="P3" t="n">
-        <v>2406.001465018976</v>
+        <v>2613.977979877465</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R3" t="n">
-        <v>2614.390233267651</v>
+        <v>2614.39023326765</v>
       </c>
       <c r="S3" t="n">
-        <v>2464.803105373095</v>
+        <v>2464.803105373094</v>
       </c>
       <c r="T3" t="n">
         <v>2267.787695880795</v>
       </c>
       <c r="U3" t="n">
-        <v>2039.648482162597</v>
+        <v>2039.648482162596</v>
       </c>
       <c r="V3" t="n">
-        <v>1804.496373930854</v>
+        <v>1804.496373930853</v>
       </c>
       <c r="W3" t="n">
         <v>1550.259017202652</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.86789613746222</v>
+        <v>275.6604752809976</v>
       </c>
       <c r="C4" t="n">
-        <v>54.86789613746222</v>
+        <v>275.6604752809976</v>
       </c>
       <c r="D4" t="n">
-        <v>54.86789613746222</v>
+        <v>275.6604752809976</v>
       </c>
       <c r="E4" t="n">
-        <v>52.71808759448422</v>
+        <v>207.0210217829589</v>
       </c>
       <c r="F4" t="n">
-        <v>52.71808759448422</v>
+        <v>207.0210217829589</v>
       </c>
       <c r="G4" t="n">
-        <v>52.71808759448422</v>
+        <v>207.0210217829589</v>
       </c>
       <c r="H4" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I4" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J4" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K4" t="n">
-        <v>153.1475318919731</v>
+        <v>153.1475318919737</v>
       </c>
       <c r="L4" t="n">
-        <v>337.1890785482319</v>
+        <v>337.1890785482335</v>
       </c>
       <c r="M4" t="n">
-        <v>541.6242080628142</v>
+        <v>541.6242080628167</v>
       </c>
       <c r="N4" t="n">
-        <v>746.6329435543747</v>
+        <v>746.632943554378</v>
       </c>
       <c r="O4" t="n">
-        <v>919.9753968917072</v>
+        <v>919.9753968917113</v>
       </c>
       <c r="P4" t="n">
-        <v>1044.779129327083</v>
+        <v>1044.779129327088</v>
       </c>
       <c r="Q4" t="n">
-        <v>1047.751684421857</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="R4" t="n">
-        <v>1047.751684421857</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="S4" t="n">
-        <v>1047.751684421857</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="T4" t="n">
-        <v>1047.751684421857</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="U4" t="n">
-        <v>1047.751684421857</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="V4" t="n">
-        <v>793.0671962159703</v>
+        <v>793.0671962159755</v>
       </c>
       <c r="W4" t="n">
-        <v>503.6500261790097</v>
+        <v>503.6500261790149</v>
       </c>
       <c r="X4" t="n">
-        <v>275.6604752809923</v>
+        <v>275.6604752809976</v>
       </c>
       <c r="Y4" t="n">
-        <v>54.86789613746222</v>
+        <v>275.6604752809976</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2224.960126440574</v>
+        <v>1167.66282556581</v>
       </c>
       <c r="C5" t="n">
-        <v>2063.364745100675</v>
+        <v>1167.66282556581</v>
       </c>
       <c r="D5" t="n">
-        <v>1705.099046493925</v>
+        <v>1167.66282556581</v>
       </c>
       <c r="E5" t="n">
-        <v>1319.310793895681</v>
+        <v>781.8745729675657</v>
       </c>
       <c r="F5" t="n">
-        <v>908.3248891060732</v>
+        <v>370.8886681779581</v>
       </c>
       <c r="G5" t="n">
-        <v>491.2249987160036</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H5" t="n">
-        <v>172.8778760174004</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I5" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J5" t="n">
-        <v>72.94508437002398</v>
+        <v>72.94508437002509</v>
       </c>
       <c r="K5" t="n">
-        <v>153.9986274745297</v>
+        <v>153.9986274745325</v>
       </c>
       <c r="L5" t="n">
-        <v>693.1884131896865</v>
+        <v>704.9390792031138</v>
       </c>
       <c r="M5" t="n">
-        <v>1322.822366070962</v>
+        <v>1334.573032084392</v>
       </c>
       <c r="N5" t="n">
-        <v>1948.012457026075</v>
+        <v>1959.763123039507</v>
       </c>
       <c r="O5" t="n">
-        <v>2493.17409378057</v>
+        <v>2493.174093780566</v>
       </c>
       <c r="P5" t="n">
-        <v>2602.201833992999</v>
+        <v>2602.201833992996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R5" t="n">
         <v>2635.143761215016</v>
       </c>
       <c r="S5" t="n">
-        <v>2478.652798385543</v>
+        <v>2478.652798385544</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.652798385543</v>
+        <v>2478.652798385544</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.960126440574</v>
+        <v>2224.960126440575</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.960126440574</v>
+        <v>1893.897239097004</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.960126440574</v>
+        <v>1541.12858382689</v>
       </c>
       <c r="X5" t="n">
-        <v>2224.960126440574</v>
+        <v>1167.66282556581</v>
       </c>
       <c r="Y5" t="n">
-        <v>2224.960126440574</v>
+        <v>1167.66282556581</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120983</v>
+        <v>966.4318812120981</v>
       </c>
       <c r="C6" t="n">
-        <v>791.9788519309714</v>
+        <v>791.9788519309711</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697201</v>
+        <v>643.0444422697199</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642646</v>
+        <v>483.8069872642643</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911496</v>
+        <v>337.2724292911493</v>
       </c>
       <c r="G6" t="n">
-        <v>199.824552964034</v>
+        <v>199.8245529640337</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815764</v>
+        <v>98.84600463815735</v>
       </c>
       <c r="I6" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J6" t="n">
-        <v>52.71808759448422</v>
+        <v>170.7774263352082</v>
       </c>
       <c r="K6" t="n">
-        <v>304.3729239851255</v>
+        <v>499.1804835727255</v>
       </c>
       <c r="L6" t="n">
-        <v>807.3557581822357</v>
+        <v>1002.163317769837</v>
       </c>
       <c r="M6" t="n">
-        <v>1446.292223162953</v>
+        <v>1628.239404388418</v>
       </c>
       <c r="N6" t="n">
-        <v>1643.297497944261</v>
+        <v>1825.244679169728</v>
       </c>
       <c r="O6" t="n">
-        <v>2191.222737149934</v>
+        <v>1983.246222291441</v>
       </c>
       <c r="P6" t="n">
-        <v>2613.977979877467</v>
+        <v>2406.001465018975</v>
       </c>
       <c r="Q6" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R6" t="n">
         <v>2614.390233267651</v>
@@ -4682,7 +4682,7 @@
         <v>2039.648482162597</v>
       </c>
       <c r="V6" t="n">
-        <v>1804.496373930855</v>
+        <v>1804.496373930854</v>
       </c>
       <c r="W6" t="n">
         <v>1550.259017202653</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>565.0776453179529</v>
+        <v>945.5519002380718</v>
       </c>
       <c r="C7" t="n">
-        <v>396.1414623900461</v>
+        <v>776.6157173101649</v>
       </c>
       <c r="D7" t="n">
-        <v>246.0248229777103</v>
+        <v>626.4990778978291</v>
       </c>
       <c r="E7" t="n">
-        <v>217.8666308203068</v>
+        <v>478.585984315436</v>
       </c>
       <c r="F7" t="n">
-        <v>70.97668332239647</v>
+        <v>331.6960368175256</v>
       </c>
       <c r="G7" t="n">
-        <v>70.97668332239647</v>
+        <v>331.6960368175256</v>
       </c>
       <c r="H7" t="n">
-        <v>70.97668332239647</v>
+        <v>177.3931026290509</v>
       </c>
       <c r="I7" t="n">
-        <v>70.97668332239647</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J7" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K7" t="n">
-        <v>153.1475318919731</v>
+        <v>153.1475318919737</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1890785482319</v>
+        <v>337.1890785482335</v>
       </c>
       <c r="M7" t="n">
-        <v>541.6242080628142</v>
+        <v>541.6242080628167</v>
       </c>
       <c r="N7" t="n">
-        <v>746.6329435543747</v>
+        <v>746.632943554378</v>
       </c>
       <c r="O7" t="n">
-        <v>919.9753968917072</v>
+        <v>919.9753968917113</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.779129327083</v>
+        <v>1044.779129327088</v>
       </c>
       <c r="Q7" t="n">
-        <v>1047.751684421857</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="R7" t="n">
-        <v>1047.751684421857</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="S7" t="n">
-        <v>1047.751684421857</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="T7" t="n">
-        <v>1047.751684421857</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="U7" t="n">
-        <v>1047.751684421857</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="V7" t="n">
-        <v>793.0671962159703</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="W7" t="n">
-        <v>793.0671962159703</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="X7" t="n">
-        <v>565.0776453179529</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="Y7" t="n">
-        <v>565.0776453179529</v>
+        <v>945.5519002380718</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1503.950549439753</v>
+        <v>1709.460808852556</v>
       </c>
       <c r="C8" t="n">
-        <v>1134.988032499341</v>
+        <v>1340.498291912144</v>
       </c>
       <c r="D8" t="n">
-        <v>776.7223338925909</v>
+        <v>982.2325933053937</v>
       </c>
       <c r="E8" t="n">
-        <v>390.9340812943466</v>
+        <v>596.4443407071494</v>
       </c>
       <c r="F8" t="n">
-        <v>383.9885805451432</v>
+        <v>185.4584359175419</v>
       </c>
       <c r="G8" t="n">
-        <v>370.9412028219747</v>
+        <v>172.4110581943734</v>
       </c>
       <c r="H8" t="n">
-        <v>52.71808759448422</v>
+        <v>172.4110581943734</v>
       </c>
       <c r="I8" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J8" t="n">
-        <v>241.3579866082206</v>
+        <v>241.3579866082205</v>
       </c>
       <c r="K8" t="n">
         <v>323.9211411828129</v>
       </c>
       <c r="L8" t="n">
-        <v>463.2497970240661</v>
+        <v>876.7343994290121</v>
       </c>
       <c r="M8" t="n">
-        <v>1094.967608007378</v>
+        <v>1163.936679233208</v>
       </c>
       <c r="N8" t="n">
-        <v>1722.275276067224</v>
+        <v>1791.244347293055</v>
       </c>
       <c r="O8" t="n">
-        <v>1961.413372610015</v>
+        <v>1961.413372610014</v>
       </c>
       <c r="P8" t="n">
-        <v>2390.72841894931</v>
+        <v>2390.728418949309</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R8" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="S8" t="n">
-        <v>2479.689342221039</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="T8" t="n">
-        <v>2479.689342221039</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="U8" t="n">
-        <v>2479.689342221039</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="V8" t="n">
-        <v>2479.689342221039</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="W8" t="n">
-        <v>2479.689342221039</v>
+        <v>2486.199980892489</v>
       </c>
       <c r="X8" t="n">
-        <v>2280.689721479686</v>
+        <v>2486.199980892489</v>
       </c>
       <c r="Y8" t="n">
-        <v>1890.550389503875</v>
+        <v>2096.060648916678</v>
       </c>
     </row>
     <row r="9">
@@ -4877,22 +4877,22 @@
         <v>199.5389224593631</v>
       </c>
       <c r="H9" t="n">
-        <v>98.62294460416773</v>
+        <v>98.62294460416771</v>
       </c>
       <c r="I9" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J9" t="n">
-        <v>52.71808759448422</v>
+        <v>171.3773394513799</v>
       </c>
       <c r="K9" t="n">
-        <v>382.1464919002941</v>
+        <v>500.8057437571897</v>
       </c>
       <c r="L9" t="n">
-        <v>886.5080317664126</v>
+        <v>1005.167283623308</v>
       </c>
       <c r="M9" t="n">
-        <v>1232.289170088821</v>
+        <v>1184.664619977913</v>
       </c>
       <c r="N9" t="n">
         <v>1430.945911741486</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>167.5376859761549</v>
+        <v>684.4485387743929</v>
       </c>
       <c r="C10" t="n">
-        <v>52.71808759448422</v>
+        <v>515.512355846486</v>
       </c>
       <c r="D10" t="n">
-        <v>52.71808759448422</v>
+        <v>365.3957164341502</v>
       </c>
       <c r="E10" t="n">
-        <v>52.71808759448422</v>
+        <v>217.4826228517572</v>
       </c>
       <c r="F10" t="n">
-        <v>52.71808759448422</v>
+        <v>70.5926753538468</v>
       </c>
       <c r="G10" t="n">
-        <v>52.71808759448422</v>
+        <v>70.5926753538468</v>
       </c>
       <c r="H10" t="n">
-        <v>52.71808759448422</v>
+        <v>70.5926753538468</v>
       </c>
       <c r="I10" t="n">
-        <v>52.71808759448422</v>
+        <v>70.5926753538468</v>
       </c>
       <c r="J10" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K10" t="n">
         <v>153.766017190094</v>
@@ -4998,16 +4998,16 @@
         <v>1052.652769053829</v>
       </c>
       <c r="V10" t="n">
-        <v>797.9682808479421</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="W10" t="n">
-        <v>797.9682808479421</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="X10" t="n">
-        <v>569.9787299499247</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="Y10" t="n">
-        <v>349.1861508063946</v>
+        <v>866.0970036046326</v>
       </c>
     </row>
     <row r="11">
@@ -5029,13 +5029,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5044,28 +5044,28 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492579</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5132,10 +5132,10 @@
         <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5272,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
@@ -5503,31 +5503,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5661,13 +5661,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5840,10 +5840,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5992,7 +5992,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597619</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F25" t="n">
-        <v>411.9631215597619</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G25" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6174,25 +6174,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="26">
@@ -6220,25 +6220,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,13 +6247,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6317,7 +6317,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>580.8993044876688</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>430.7826650753331</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>282.8695714929399</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>135.9796239950296</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6454,19 +6454,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6545,25 +6545,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,10 +6697,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6837,16 +6837,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362695</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7174,28 +7174,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="41">
@@ -7402,16 +7402,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7429,10 +7429,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -7978,16 +7978,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>236.6952397688591</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>115.8454657118161</v>
       </c>
       <c r="N2" t="n">
         <v>437.3469244119842</v>
@@ -7996,7 +7996,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.839178026546833</v>
+        <v>6.839178026546165</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>347.7048391793049</v>
+        <v>459.9808678792245</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>45.42368237239634</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,7 +8221,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>405.7918549409329</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8230,7 +8230,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>368.9308216532116</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.839178026546833</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>186.9417816116949</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>452.7147825761232</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8458,16 +8458,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>101.5180474533219</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>69.66572851094102</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>167.9634363311152</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>48.10560617263477</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>72.11969353038566</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H25" t="n">
-        <v>72.11969353038613</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>166.0397529241845</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459264</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>669575.1095865731</v>
+        <v>669575.1095865727</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>669575.1095865731</v>
+        <v>669575.1095865727</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>669226.9311226088</v>
+        <v>669226.9311226087</v>
       </c>
     </row>
     <row r="5">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>610849.4454526155</v>
+        <v>610849.4454526156</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>610849.4454526155</v>
+        <v>610849.4454526156</v>
       </c>
     </row>
     <row r="11">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642839</v>
       </c>
       <c r="C2" t="n">
         <v>821041.7698642835</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="H2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="I2" t="n">
+        <v>807146.5996900066</v>
+      </c>
+      <c r="J2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="K2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="L2" t="n">
         <v>807146.5996900063</v>
-      </c>
-      <c r="J2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="K2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="L2" t="n">
-        <v>807146.5996900062</v>
       </c>
       <c r="M2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900065</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.599690006</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.599690006</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>789845.9331222398</v>
+        <v>789845.933122243</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2553.74144847562</v>
+        <v>2553.741448472796</v>
       </c>
       <c r="E3" t="n">
-        <v>775624.2722329925</v>
+        <v>775624.2722329923</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>128024.1174663868</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184436.3405408961</v>
+        <v>184436.3405408955</v>
       </c>
       <c r="C4" t="n">
-        <v>184436.3405408961</v>
+        <v>184436.3405408955</v>
       </c>
       <c r="D4" t="n">
         <v>183932.5854660025</v>
       </c>
       <c r="E4" t="n">
+        <v>6287.480531695086</v>
+      </c>
+      <c r="F4" t="n">
         <v>6287.480531695052</v>
       </c>
-      <c r="F4" t="n">
-        <v>6287.480531695021</v>
-      </c>
       <c r="G4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
         <v>6287.480531695052</v>
@@ -26441,10 +26441,10 @@
         <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.48053169501</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695052</v>
@@ -26453,7 +26453,7 @@
         <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695011</v>
       </c>
       <c r="O4" t="n">
         <v>6287.480531695052</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86566.12012538439</v>
+        <v>86566.12012538445</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.12012538439</v>
+        <v>86566.12012538445</v>
       </c>
       <c r="D5" t="n">
-        <v>86631.12555917782</v>
+        <v>86631.1255591778</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-239806.6239242369</v>
+        <v>-239806.6239242392</v>
       </c>
       <c r="C6" t="n">
-        <v>550039.309198003</v>
+        <v>550039.3091980036</v>
       </c>
       <c r="D6" t="n">
-        <v>547924.3173906276</v>
+        <v>547924.3173906301</v>
       </c>
       <c r="E6" t="n">
-        <v>-76235.06215294557</v>
+        <v>-75922.42082402411</v>
       </c>
       <c r="F6" t="n">
-        <v>699389.2100800469</v>
+        <v>699701.8514089684</v>
       </c>
       <c r="G6" t="n">
-        <v>699389.2100800473</v>
+        <v>699701.8514089684</v>
       </c>
       <c r="H6" t="n">
-        <v>699389.2100800471</v>
+        <v>699701.8514089684</v>
       </c>
       <c r="I6" t="n">
-        <v>699389.2100800473</v>
+        <v>699701.8514089688</v>
       </c>
       <c r="J6" t="n">
-        <v>526972.0686979067</v>
+        <v>527284.7100268282</v>
       </c>
       <c r="K6" t="n">
-        <v>699389.2100800473</v>
+        <v>699701.8514089683</v>
       </c>
       <c r="L6" t="n">
-        <v>699389.2100800471</v>
+        <v>699701.8514089686</v>
       </c>
       <c r="M6" t="n">
-        <v>571365.0926136604</v>
+        <v>571677.7339425817</v>
       </c>
       <c r="N6" t="n">
-        <v>699389.210080047</v>
+        <v>699701.8514089686</v>
       </c>
       <c r="O6" t="n">
-        <v>699389.2100800471</v>
+        <v>699701.8514089682</v>
       </c>
       <c r="P6" t="n">
-        <v>699389.210080047</v>
+        <v>699701.8514089682</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053388</v>
+        <v>590.4941997053421</v>
       </c>
       <c r="C3" t="n">
-        <v>590.4941997053388</v>
+        <v>590.4941997053421</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="D4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-3.250528837155401e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.916333841085361e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053388</v>
+        <v>590.4941997053421</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.981900632726251</v>
+        <v>2.981900632722954</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310523</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.732193168596</v>
+        <v>513.7321931685958</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.916333841085361e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>197.9216879248912</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>215.9913178526294</v>
       </c>
       <c r="H2" t="n">
-        <v>315.1636514716172</v>
+        <v>315.1636514716171</v>
       </c>
       <c r="I2" t="n">
-        <v>118.958190538687</v>
+        <v>118.9581905386865</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011784</v>
+        <v>154.9260532011781</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>144.3056521890209</v>
+        <v>78.48090368351095</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27554,13 +27554,13 @@
         <v>166.9261537524327</v>
       </c>
       <c r="H4" t="n">
-        <v>152.75990484659</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>123.4282648842212</v>
+        <v>123.428264884221</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063312</v>
+        <v>18.07600977063269</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.4149600371268</v>
+        <v>129.4149600371265</v>
       </c>
       <c r="S4" t="n">
-        <v>205.4595917937733</v>
+        <v>205.4595917937732</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3958800207158</v>
+        <v>223.3958800207157</v>
       </c>
       <c r="U4" t="n">
         <v>286.2609479597986</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>205.2934642445078</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>97.94001670852975</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.1636514716171</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.9581905386865</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.7043385723319</v>
+        <v>212.7043385723318</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>118.5573524107397</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>166.9261537524327</v>
       </c>
       <c r="H7" t="n">
-        <v>152.75990484659</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>123.4282648842212</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.07600977063269</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.4149600371268</v>
+        <v>129.4149600371265</v>
       </c>
       <c r="S7" t="n">
-        <v>205.4595917937733</v>
+        <v>205.4595917937732</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3958800207158</v>
+        <v>223.3958800207157</v>
       </c>
       <c r="U7" t="n">
         <v>286.2609479597986</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>117.4068670101421</v>
       </c>
     </row>
     <row r="8">
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>201.0336138740097</v>
       </c>
       <c r="X8" t="n">
-        <v>172.7214761445302</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>53.57541870077387</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28034,7 +28034,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28070,16 +28070,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>33.89444555739044</v>
       </c>
     </row>
     <row r="11">
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>7.469682599151581e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.373846028966184</v>
+        <v>2.373846028966198</v>
       </c>
       <c r="H2" t="n">
-        <v>24.31115064414994</v>
+        <v>24.31115064415008</v>
       </c>
       <c r="I2" t="n">
-        <v>91.51769903171892</v>
+        <v>91.51769903171942</v>
       </c>
       <c r="J2" t="n">
-        <v>201.4772144009689</v>
+        <v>201.47721440097</v>
       </c>
       <c r="K2" t="n">
-        <v>301.9621168071075</v>
+        <v>301.9621168071092</v>
       </c>
       <c r="L2" t="n">
-        <v>374.6107072160814</v>
+        <v>374.6107072160835</v>
       </c>
       <c r="M2" t="n">
-        <v>416.8265915337088</v>
+        <v>416.8265915337112</v>
       </c>
       <c r="N2" t="n">
-        <v>423.571281563509</v>
+        <v>423.5712815635114</v>
       </c>
       <c r="O2" t="n">
-        <v>399.9663501129765</v>
+        <v>399.9663501129788</v>
       </c>
       <c r="P2" t="n">
-        <v>341.3620262728738</v>
+        <v>341.3620262728757</v>
       </c>
       <c r="Q2" t="n">
-        <v>256.3486653605222</v>
+        <v>256.3486653605236</v>
       </c>
       <c r="R2" t="n">
-        <v>149.1161056170472</v>
+        <v>149.116105617048</v>
       </c>
       <c r="S2" t="n">
-        <v>54.09401638506698</v>
+        <v>54.09401638506728</v>
       </c>
       <c r="T2" t="n">
-        <v>10.39151099179948</v>
+        <v>10.39151099179954</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1899076823172947</v>
+        <v>0.1899076823172958</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.2701195993662</v>
+        <v>1.270119599366208</v>
       </c>
       <c r="H3" t="n">
-        <v>12.26668139387883</v>
+        <v>12.2666813938789</v>
       </c>
       <c r="I3" t="n">
-        <v>43.7299949781784</v>
+        <v>43.72999497817865</v>
       </c>
       <c r="J3" t="n">
-        <v>119.9984486401199</v>
+        <v>119.9984486401205</v>
       </c>
       <c r="K3" t="n">
-        <v>205.0964617976553</v>
+        <v>205.0964617976564</v>
       </c>
       <c r="L3" t="n">
-        <v>275.7775033623849</v>
+        <v>275.7775033623865</v>
       </c>
       <c r="M3" t="n">
-        <v>321.8193388394096</v>
+        <v>321.8193388394114</v>
       </c>
       <c r="N3" t="n">
-        <v>330.3369391351593</v>
+        <v>330.3369391351612</v>
       </c>
       <c r="O3" t="n">
-        <v>302.193762749203</v>
+        <v>302.1937627492047</v>
       </c>
       <c r="P3" t="n">
-        <v>242.5371364789721</v>
+        <v>242.5371364789735</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.1296527190961</v>
+        <v>162.129652719097</v>
       </c>
       <c r="R3" t="n">
-        <v>78.85882916064887</v>
+        <v>78.85882916064931</v>
       </c>
       <c r="S3" t="n">
-        <v>23.59191448822744</v>
+        <v>23.59191448822757</v>
       </c>
       <c r="T3" t="n">
-        <v>5.119473297445341</v>
+        <v>5.11947329744537</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0835604999583027</v>
+        <v>0.08356049995830317</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.064825606026021</v>
+        <v>1.064825606026027</v>
       </c>
       <c r="H4" t="n">
-        <v>9.467267660849537</v>
+        <v>9.46726766084959</v>
       </c>
       <c r="I4" t="n">
-        <v>32.02221004303707</v>
+        <v>32.02221004303725</v>
       </c>
       <c r="J4" t="n">
-        <v>75.28317034603965</v>
+        <v>75.28317034604008</v>
       </c>
       <c r="K4" t="n">
-        <v>123.7133749546595</v>
+        <v>123.7133749546602</v>
       </c>
       <c r="L4" t="n">
-        <v>158.3105269177231</v>
+        <v>158.310526917724</v>
       </c>
       <c r="M4" t="n">
-        <v>166.9162538609698</v>
+        <v>166.9162538609707</v>
       </c>
       <c r="N4" t="n">
-        <v>162.9473584203274</v>
+        <v>162.9473584203284</v>
       </c>
       <c r="O4" t="n">
-        <v>150.5082592953871</v>
+        <v>150.5082592953879</v>
       </c>
       <c r="P4" t="n">
-        <v>128.7858169324561</v>
+        <v>128.7858169324568</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.16462415550616</v>
+        <v>89.16462415550666</v>
       </c>
       <c r="R4" t="n">
-        <v>47.8784313400427</v>
+        <v>47.87843134004297</v>
       </c>
       <c r="S4" t="n">
-        <v>18.55700624319892</v>
+        <v>18.55700624319902</v>
       </c>
       <c r="T4" t="n">
-        <v>4.549709407565723</v>
+        <v>4.549709407565749</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05808139669232847</v>
+        <v>0.05808139669232879</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.373846028966184</v>
+        <v>2.373846028966198</v>
       </c>
       <c r="H5" t="n">
-        <v>24.31115064414994</v>
+        <v>24.31115064415008</v>
       </c>
       <c r="I5" t="n">
-        <v>91.51769903171892</v>
+        <v>91.51769903171942</v>
       </c>
       <c r="J5" t="n">
-        <v>201.4772144009689</v>
+        <v>201.47721440097</v>
       </c>
       <c r="K5" t="n">
-        <v>301.9621168071075</v>
+        <v>301.9621168071092</v>
       </c>
       <c r="L5" t="n">
-        <v>374.6107072160814</v>
+        <v>374.6107072160835</v>
       </c>
       <c r="M5" t="n">
-        <v>416.8265915337088</v>
+        <v>416.8265915337112</v>
       </c>
       <c r="N5" t="n">
-        <v>423.571281563509</v>
+        <v>423.5712815635114</v>
       </c>
       <c r="O5" t="n">
-        <v>399.9663501129765</v>
+        <v>399.9663501129788</v>
       </c>
       <c r="P5" t="n">
-        <v>341.3620262728738</v>
+        <v>341.3620262728757</v>
       </c>
       <c r="Q5" t="n">
-        <v>256.3486653605222</v>
+        <v>256.3486653605236</v>
       </c>
       <c r="R5" t="n">
-        <v>149.1161056170472</v>
+        <v>149.116105617048</v>
       </c>
       <c r="S5" t="n">
-        <v>54.09401638506698</v>
+        <v>54.09401638506728</v>
       </c>
       <c r="T5" t="n">
-        <v>10.39151099179948</v>
+        <v>10.39151099179954</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1899076823172947</v>
+        <v>0.1899076823172958</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.2701195993662</v>
+        <v>1.270119599366208</v>
       </c>
       <c r="H6" t="n">
-        <v>12.26668139387883</v>
+        <v>12.2666813938789</v>
       </c>
       <c r="I6" t="n">
-        <v>43.7299949781784</v>
+        <v>43.72999497817865</v>
       </c>
       <c r="J6" t="n">
-        <v>119.9984486401199</v>
+        <v>119.9984486401205</v>
       </c>
       <c r="K6" t="n">
-        <v>205.0964617976553</v>
+        <v>205.0964617976564</v>
       </c>
       <c r="L6" t="n">
-        <v>275.7775033623849</v>
+        <v>275.7775033623865</v>
       </c>
       <c r="M6" t="n">
-        <v>321.8193388394096</v>
+        <v>321.8193388394114</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3369391351593</v>
+        <v>330.3369391351612</v>
       </c>
       <c r="O6" t="n">
-        <v>302.193762749203</v>
+        <v>302.1937627492047</v>
       </c>
       <c r="P6" t="n">
-        <v>242.5371364789721</v>
+        <v>242.5371364789735</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.1296527190961</v>
+        <v>162.129652719097</v>
       </c>
       <c r="R6" t="n">
-        <v>78.85882916064887</v>
+        <v>78.85882916064931</v>
       </c>
       <c r="S6" t="n">
-        <v>23.59191448822744</v>
+        <v>23.59191448822757</v>
       </c>
       <c r="T6" t="n">
-        <v>5.119473297445341</v>
+        <v>5.11947329744537</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0835604999583027</v>
+        <v>0.08356049995830317</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.064825606026021</v>
+        <v>1.064825606026027</v>
       </c>
       <c r="H7" t="n">
-        <v>9.467267660849537</v>
+        <v>9.46726766084959</v>
       </c>
       <c r="I7" t="n">
-        <v>32.02221004303707</v>
+        <v>32.02221004303725</v>
       </c>
       <c r="J7" t="n">
-        <v>75.28317034603965</v>
+        <v>75.28317034604008</v>
       </c>
       <c r="K7" t="n">
-        <v>123.7133749546595</v>
+        <v>123.7133749546602</v>
       </c>
       <c r="L7" t="n">
-        <v>158.3105269177231</v>
+        <v>158.310526917724</v>
       </c>
       <c r="M7" t="n">
-        <v>166.9162538609698</v>
+        <v>166.9162538609707</v>
       </c>
       <c r="N7" t="n">
-        <v>162.9473584203274</v>
+        <v>162.9473584203284</v>
       </c>
       <c r="O7" t="n">
-        <v>150.5082592953871</v>
+        <v>150.5082592953879</v>
       </c>
       <c r="P7" t="n">
-        <v>128.7858169324561</v>
+        <v>128.7858169324568</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.16462415550616</v>
+        <v>89.16462415550666</v>
       </c>
       <c r="R7" t="n">
-        <v>47.8784313400427</v>
+        <v>47.87843134004297</v>
       </c>
       <c r="S7" t="n">
-        <v>18.55700624319892</v>
+        <v>18.55700624319902</v>
       </c>
       <c r="T7" t="n">
-        <v>4.549709407565723</v>
+        <v>4.549709407565749</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05808139669232847</v>
+        <v>0.05808139669232879</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>338.1920576279218</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>467.1465236515247</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32317,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32560,13 +32560,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33265,28 +33265,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>189.5279250463564</v>
+        <v>20.43130987428373</v>
       </c>
       <c r="K2" t="n">
-        <v>81.87226576212697</v>
+        <v>81.87226576212868</v>
       </c>
       <c r="L2" t="n">
-        <v>375.5395320149533</v>
+        <v>556.5055067965468</v>
       </c>
       <c r="M2" t="n">
-        <v>635.9938917992686</v>
+        <v>302.3258240182545</v>
       </c>
       <c r="N2" t="n">
-        <v>631.5051423789023</v>
+        <v>631.5051423789046</v>
       </c>
       <c r="O2" t="n">
-        <v>550.6683199540352</v>
+        <v>550.6683199540374</v>
       </c>
       <c r="P2" t="n">
-        <v>110.1290305176042</v>
+        <v>431.9277386890888</v>
       </c>
       <c r="Q2" t="n">
-        <v>34.04297548607272</v>
+        <v>34.04297548607414</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>67.25502282329629</v>
+        <v>67.25502282329745</v>
       </c>
       <c r="L3" t="n">
-        <v>137.2231235825107</v>
+        <v>508.0634688859715</v>
       </c>
       <c r="M3" t="n">
-        <v>645.3903686673912</v>
+        <v>645.390368667393</v>
       </c>
       <c r="N3" t="n">
-        <v>546.7000662311309</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="O3" t="n">
-        <v>553.459837581488</v>
+        <v>553.4598375814898</v>
       </c>
       <c r="P3" t="n">
-        <v>427.025497704579</v>
+        <v>153.9864114370396</v>
       </c>
       <c r="Q3" t="n">
-        <v>232.2251663689237</v>
+        <v>22.14787863307546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>101.4438831287766</v>
+        <v>101.4438831287773</v>
       </c>
       <c r="L4" t="n">
-        <v>185.9005521780393</v>
+        <v>185.9005521780402</v>
       </c>
       <c r="M4" t="n">
-        <v>206.5001308228103</v>
+        <v>206.5001308228113</v>
       </c>
       <c r="N4" t="n">
-        <v>207.079530799556</v>
+        <v>207.0795307995569</v>
       </c>
       <c r="O4" t="n">
-        <v>175.0933872094267</v>
+        <v>175.0933872094276</v>
       </c>
       <c r="P4" t="n">
-        <v>126.0643761973496</v>
+        <v>126.0643761973503</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.002580903811776</v>
+        <v>3.002580903812273</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>20.43130987428259</v>
+        <v>20.43130987428373</v>
       </c>
       <c r="K5" t="n">
-        <v>81.87226576212697</v>
+        <v>81.87226576212868</v>
       </c>
       <c r="L5" t="n">
-        <v>544.6361471870271</v>
+        <v>556.5055067965468</v>
       </c>
       <c r="M5" t="n">
-        <v>635.9938917992686</v>
+        <v>635.993891799271</v>
       </c>
       <c r="N5" t="n">
-        <v>631.5051423789023</v>
+        <v>631.5051423789046</v>
       </c>
       <c r="O5" t="n">
-        <v>550.6683199540352</v>
+        <v>538.7989603445037</v>
       </c>
       <c r="P5" t="n">
-        <v>110.1290305176042</v>
+        <v>110.1290305176062</v>
       </c>
       <c r="Q5" t="n">
-        <v>34.04297548607272</v>
+        <v>34.04297548607414</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.2518573138627</v>
       </c>
       <c r="K6" t="n">
-        <v>254.1968044349912</v>
+        <v>331.720259835876</v>
       </c>
       <c r="L6" t="n">
-        <v>508.0634688859699</v>
+        <v>508.0634688859715</v>
       </c>
       <c r="M6" t="n">
-        <v>645.3903686673912</v>
+        <v>632.4000874935163</v>
       </c>
       <c r="N6" t="n">
-        <v>198.995227051826</v>
+        <v>198.9952270518279</v>
       </c>
       <c r="O6" t="n">
-        <v>553.459837581488</v>
+        <v>159.5975183047602</v>
       </c>
       <c r="P6" t="n">
-        <v>427.025497704579</v>
+        <v>427.0254977045804</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.14787863307455</v>
+        <v>232.2251663689246</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>101.4438831287766</v>
+        <v>101.4438831287773</v>
       </c>
       <c r="L7" t="n">
-        <v>185.9005521780393</v>
+        <v>185.9005521780402</v>
       </c>
       <c r="M7" t="n">
-        <v>206.5001308228103</v>
+        <v>206.5001308228113</v>
       </c>
       <c r="N7" t="n">
-        <v>207.079530799556</v>
+        <v>207.0795307995569</v>
       </c>
       <c r="O7" t="n">
-        <v>175.0933872094267</v>
+        <v>175.0933872094276</v>
       </c>
       <c r="P7" t="n">
-        <v>126.0643761973496</v>
+        <v>126.0643761973503</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002580903811776</v>
+        <v>3.002580903812273</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35178,16 +35178,16 @@
         <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>290.1033129335316</v>
       </c>
       <c r="N8" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>241.5536328715062</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35260,10 +35260,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>349.2738770933423</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>248.7689815793668</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>196.0580237059035</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>328.5921438716505</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35965,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
